--- a/Design_PCB/ComponentesPCB.xlsx
+++ b/Design_PCB/ComponentesPCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uc3m_irehab\Documents\Yepez_PC_WS\ArduinoPLC\UC3M-Arduino-PLC\Design_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1F6E1B-8A66-43A5-9E3C-6ED2C2F4FD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A20EE70-F5C2-4C3A-B072-BB0872320452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{C4412E11-B95E-40C1-A140-7EAD1C647F4A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4412E11-B95E-40C1-A140-7EAD1C647F4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -189,6 +189,138 @@
   </si>
   <si>
     <t>DC DC CONVERTER 24-12V 15W</t>
+  </si>
+  <si>
+    <t>UI0-UI4</t>
+  </si>
+  <si>
+    <t>Optoisolator Transistor with Base Output 5300Vrms 1 Channel 6-DIP</t>
+  </si>
+  <si>
+    <t>H11AA1</t>
+  </si>
+  <si>
+    <t>UO0-UO4</t>
+  </si>
+  <si>
+    <t>Optoisolator Triac Output 5000Vrms 1 Channel 6-DIP</t>
+  </si>
+  <si>
+    <t>MOC3021</t>
+  </si>
+  <si>
+    <t>UT0-UT4</t>
+  </si>
+  <si>
+    <t>TRIAC 600V 6A TO220</t>
+  </si>
+  <si>
+    <t>BTA06-600BRG</t>
+  </si>
+  <si>
+    <t>QI0-QI4</t>
+  </si>
+  <si>
+    <t>TRANS NPN 40V 0.2A TO-92</t>
+  </si>
+  <si>
+    <t>2N3904RM</t>
+  </si>
+  <si>
+    <t>QO0-QO4</t>
+  </si>
+  <si>
+    <t>TRANS NPN 30V 0.8A TO-18</t>
+  </si>
+  <si>
+    <t>2N2222 PBFREE</t>
+  </si>
+  <si>
+    <t>CT0-CT4</t>
+  </si>
+  <si>
+    <t>CAP CER 1000PF 250VAC X7R 1808</t>
+  </si>
+  <si>
+    <t>SCDP502W102K4GV001E</t>
+  </si>
+  <si>
+    <t>C1-C4</t>
+  </si>
+  <si>
+    <t>CAP CER 2.2UF 25V X7R 1206</t>
+  </si>
+  <si>
+    <t>CC1206JKX7R8BB225</t>
+  </si>
+  <si>
+    <t>CAP CER 10UF 25V X7R 1206</t>
+  </si>
+  <si>
+    <t>C1206X106J3RACTU</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>RES SMD 100 OHM 5% 2/3W 1206</t>
+  </si>
+  <si>
+    <t>ERJ-P08J101V</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>RES SMD 33 OHM 0.5% 2/3W 1206</t>
+  </si>
+  <si>
+    <t>ERJ-P08D33R0V</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>RES SMD 330 OHM 5% 2/3W 1206</t>
+  </si>
+  <si>
+    <t>ERJ-P08J331V</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>RES SMD 10 KOHM 1% 2/3W 1206</t>
+  </si>
+  <si>
+    <t>ERJ-P08F1002V</t>
+  </si>
+  <si>
+    <t>DIODE STANDARD 75V 300MA DO35</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>Arduino Ethernet Shield v2</t>
+  </si>
+  <si>
+    <t>ARD-0090</t>
+  </si>
+  <si>
+    <t>Arduino UNO REV3</t>
+  </si>
+  <si>
+    <t>ARD-0032</t>
+  </si>
+  <si>
+    <t>UI U2</t>
+  </si>
+  <si>
+    <t>IC OPAMP GP 2 CIRCUIT 8DIP</t>
+  </si>
+  <si>
+    <t>LM358P</t>
   </si>
 </sst>
 </file>
@@ -198,16 +330,8 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -223,9 +347,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF444444"/>
-      <name val="Roboto"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -253,38 +392,48 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -620,443 +769,785 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1E3B3E-0EBA-4080-B579-31B80E859407}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="5">
         <v>0.96</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="5">
         <f>D2*E2</f>
         <v>1.92</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="10" t="s">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="5">
         <v>2.4</v>
       </c>
-      <c r="F3" s="12">
-        <f t="shared" ref="F3:F19" si="0">D3*E3</f>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F35" si="0">D3*E3</f>
         <v>4.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="5">
         <v>0.8</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="5">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="10" t="s">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="5">
         <v>2.08</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>4.16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="5">
         <v>1.29</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>2.58</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="10" t="s">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="5">
         <v>3.2</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="5">
         <v>0.5</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10" t="s">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>4</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="5">
         <v>1.6</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="5">
         <v>1.44</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>1.44</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="10" t="s">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="5">
         <v>4.1500000000000004</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="10" t="s">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="10" t="s">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="10" t="s">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="5">
         <v>9.9</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="5">
         <f t="shared" si="0"/>
         <v>49.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10" t="s">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="5">
         <v>0.18</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="5">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="5">
         <v>33.380000000000003</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>33.380000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>5</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="5">
         <v>12.85</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="5">
         <f t="shared" si="0"/>
         <v>64.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="7"/>
-      <c r="E20" t="s">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="12">
+        <v>10</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="12">
+        <v>10</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0.61</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="0"/>
+        <v>6.1</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="3">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="3">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="3">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1.82</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
+        <v>18.2</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="11">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="F25" s="16">
+        <f t="shared" si="0"/>
+        <v>10.069999999999999</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="3">
+        <v>10</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>2.08</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="3">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="3">
+        <v>20</v>
+      </c>
+      <c r="E28" s="5">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="3">
+        <v>10</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10</v>
+      </c>
+      <c r="E30" s="5">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="3">
+        <v>20</v>
+      </c>
+      <c r="E31" s="5">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8199999999999998</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="3">
+        <v>10</v>
+      </c>
+      <c r="E32" s="5">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="3">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>28.4</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="0"/>
+        <v>28.4</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>23.95</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="0"/>
+        <v>23.95</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="12">
-        <f>SUM(F2:F19)</f>
-        <v>183.48000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="7"/>
+      <c r="F36" s="18">
+        <f>SUM(F2:F22)</f>
+        <v>214.68</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1069,26 +1560,42 @@
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{343F8B75-9607-41EE-B81E-5EB48F9DD5EC}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{A90F77FA-85B2-4FA0-8B26-A45BCBF9C348}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{B7B26972-9A97-4A4C-902E-3E0E5AB3F3C1}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{4D2A82A4-05F9-460B-AB7D-1EB8F58AE307}"/>
-    <hyperlink ref="C18" r:id="rId5" xr:uid="{19577225-4B35-48B5-B02B-9EB21EBFD7A4}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{4A178784-11E0-45B2-8A9D-F3F2E458BE32}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{F24D9631-F31C-4C62-B6D2-12EB4A29C937}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{EB9E2F62-EEF4-41AC-BA2D-86C2E6773853}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{88846969-F6A2-443D-99F7-7630B40C09EF}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{FB1D28C2-3BFA-4157-A8CB-A07CD4741C74}"/>
-    <hyperlink ref="C10" r:id="rId11" xr:uid="{A36D5278-DB70-4872-9224-C2A3F2B9E6F6}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{DDB12AEC-F18E-4B09-94F4-5764F60AE410}"/>
-    <hyperlink ref="C15" r:id="rId13" xr:uid="{B1B84128-CA3C-467F-9E0A-B84B1D7C4FB5}"/>
-    <hyperlink ref="C12" r:id="rId14" xr:uid="{B993F406-14F4-44AE-81B6-7CF0A28103BD}"/>
-    <hyperlink ref="C13" r:id="rId15" xr:uid="{9CE6CCC0-C0C6-44E5-84E6-8070D4F90B19}"/>
-    <hyperlink ref="C16" r:id="rId16" xr:uid="{D7060E15-D362-4FE5-AE86-105012240D57}"/>
-    <hyperlink ref="C19" r:id="rId17" xr:uid="{1A6A2E97-14B4-49BD-9F72-870500B45800}"/>
-    <hyperlink ref="C17" r:id="rId18" xr:uid="{FCA3E3BA-FADC-49F3-947E-217DEDF0221D}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{644D6A3B-C214-41DB-9BE2-1F00C8EAD3FA}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{26403A79-3792-4CD9-A7FA-38B363C83671}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{8AAA3D5A-F9B1-4416-9E8B-E844FE1B0EA0}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{BB045645-5F36-40E2-A764-366C3945988C}"/>
+    <hyperlink ref="C18" r:id="rId5" xr:uid="{4BF6CE15-66E2-455A-B185-D93025996B6D}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{44B8A3BC-BE17-49DE-B813-2B3EC9916B0A}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{786D9C9B-70C7-4D2B-9D39-537B1F9B1E13}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{DCE2143C-7837-4643-8A7E-7FF339FF7FB9}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{77D32385-85DC-4FE9-8AA8-B5FE2F484EE8}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{1996DC46-F66B-4277-8CF3-9FAD4FF8F53F}"/>
+    <hyperlink ref="C10" r:id="rId11" xr:uid="{F9EA7BEC-ACB0-4B37-B276-3431CE7085AE}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{D5C2B64E-3142-4D3F-B72B-0ED44884C4E3}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{6521EF2C-E723-4D03-BEA9-BDE7AA1B1D88}"/>
+    <hyperlink ref="C12" r:id="rId14" xr:uid="{53559723-010B-458A-BA7F-FBB5AD33E6E0}"/>
+    <hyperlink ref="C13" r:id="rId15" xr:uid="{68576154-7C86-479E-BC7D-43F5F5AC3A60}"/>
+    <hyperlink ref="C16" r:id="rId16" xr:uid="{7928E39E-3C7B-43C1-95F5-8EBD781A12EE}"/>
+    <hyperlink ref="C19" r:id="rId17" xr:uid="{C143F202-EDAB-430F-8742-C786456C1DBC}"/>
+    <hyperlink ref="C17" r:id="rId18" xr:uid="{0F3D1F85-8D8A-415D-B6F1-E919E80B9940}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{FA03261A-9F4B-45D7-889D-42805F950595}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{4165B15A-3CA0-4CA1-A2C1-E9230DE02907}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{F129C997-CE5D-4076-A68B-0D2B355DA9FB}"/>
+    <hyperlink ref="C24" r:id="rId22" xr:uid="{738F9E8E-694E-4900-B574-C328D2FCE0EF}"/>
+    <hyperlink ref="C23" r:id="rId23" xr:uid="{FC010B1E-9186-4023-9DEB-FDA683638693}"/>
+    <hyperlink ref="C28" r:id="rId24" xr:uid="{3418E3FD-2D41-49BA-BB59-2F708FDD4C0F}"/>
+    <hyperlink ref="C29" r:id="rId25" xr:uid="{9F547428-A66E-4DC6-91C9-C7D0E88DD06D}"/>
+    <hyperlink ref="C30" r:id="rId26" xr:uid="{742D5439-2710-4939-992E-57AF63664899}"/>
+    <hyperlink ref="C31" r:id="rId27" xr:uid="{A6DF6EFC-E3CC-4BCD-899B-079622D89679}"/>
+    <hyperlink ref="C27" r:id="rId28" xr:uid="{9189B1D7-B6BC-438E-8EB0-33736C6804C1}"/>
+    <hyperlink ref="C26" r:id="rId29" xr:uid="{40CFED45-6950-4F97-B984-BC8660C2630F}"/>
+    <hyperlink ref="C25" r:id="rId30" xr:uid="{96D74446-3015-48AA-BD50-81AFBC55031A}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{1DD39A07-5629-4B9E-BE54-9B0590DCC977}"/>
+    <hyperlink ref="C34" r:id="rId32" xr:uid="{7CDA0319-083C-463F-96F5-FA0BE90D1B0A}"/>
+    <hyperlink ref="C35" r:id="rId33" xr:uid="{B85D1780-1AF9-4FB9-8FB4-8882A2155AA8}"/>
+    <hyperlink ref="C33" r:id="rId34" xr:uid="{A59E044E-7673-48CC-8D5B-6F6A1DEFAB7B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/Design_PCB/ComponentesPCB.xlsx
+++ b/Design_PCB/ComponentesPCB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uc3m_irehab\Documents\Yepez_PC_WS\ArduinoPLC\UC3M-Arduino-PLC\Design_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A20EE70-F5C2-4C3A-B072-BB0872320452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3937491-0204-497A-91BB-AB93880B91CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4412E11-B95E-40C1-A140-7EAD1C647F4A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>LM358P</t>
+  </si>
+  <si>
+    <t>LED GREEN DIFF RECT 2MMX5MM T/H</t>
+  </si>
+  <si>
+    <t>WP113GDT</t>
   </si>
 </sst>
 </file>
@@ -330,7 +336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +372,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -394,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -407,9 +421,6 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -434,6 +445,14 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -769,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1E3B3E-0EBA-4080-B579-31B80E859407}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +801,7 @@
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -803,8 +822,8 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -825,8 +844,8 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -840,13 +859,13 @@
         <v>2.4</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F35" si="0">D3*E3</f>
+        <f t="shared" ref="F3:F36" si="0">D3*E3</f>
         <v>4.8</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -867,8 +886,8 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -887,8 +906,8 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -909,8 +928,8 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -929,8 +948,8 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -951,8 +970,8 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -971,8 +990,8 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -993,8 +1012,8 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
@@ -1004,7 +1023,7 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="20">
         <v>4.1500000000000004</v>
       </c>
       <c r="F11" s="5">
@@ -1013,8 +1032,8 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1026,15 +1045,17 @@
       <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="20">
+        <v>2.4500000000000002</v>
+      </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1044,15 +1065,17 @@
       <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="20">
+        <v>1.8</v>
+      </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1064,15 +1087,17 @@
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="20">
+        <v>2.8</v>
+      </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
@@ -1082,15 +1107,17 @@
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="20">
+        <v>1.21</v>
+      </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
@@ -1108,13 +1135,14 @@
         <v>49.5</v>
       </c>
       <c r="G16" s="3"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="3">
@@ -1136,7 +1164,7 @@
       <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="3">
@@ -1156,7 +1184,7 @@
       <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="3">
@@ -1172,57 +1200,57 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>10</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>10</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>0.61</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <f t="shared" si="0"/>
         <v>6.1</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="3">
@@ -1238,13 +1266,13 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D23" s="3">
@@ -1260,13 +1288,13 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D24" s="3">
@@ -1282,7 +1310,7 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1291,26 +1319,26 @@
       <c r="C25" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>10</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <v>1.0069999999999999</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <f t="shared" si="0"/>
         <v>10.069999999999999</v>
       </c>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>71</v>
       </c>
       <c r="D26" s="3">
@@ -1326,13 +1354,13 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D27" s="3">
@@ -1348,13 +1376,13 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D28" s="3">
@@ -1370,13 +1398,13 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D29" s="3">
@@ -1392,13 +1420,13 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D30" s="3">
@@ -1414,13 +1442,13 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D31" s="3">
@@ -1436,11 +1464,11 @@
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="3">
@@ -1456,13 +1484,13 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D33" s="3">
@@ -1478,11 +1506,11 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D34" s="3">
@@ -1502,7 +1530,7 @@
       <c r="B35" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D35" s="3">
@@ -1518,26 +1546,36 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="18">
-        <f>SUM(F2:F22)</f>
-        <v>214.68</v>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36" s="20">
+        <v>0.128</v>
+      </c>
+      <c r="F36" s="20">
+        <f t="shared" si="0"/>
+        <v>2.56</v>
       </c>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="17">
+        <f>SUM(F2:F36)</f>
+        <v>327.49999999999994</v>
+      </c>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1548,6 +1586,15 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1594,8 +1641,9 @@
     <hyperlink ref="C34" r:id="rId32" xr:uid="{7CDA0319-083C-463F-96F5-FA0BE90D1B0A}"/>
     <hyperlink ref="C35" r:id="rId33" xr:uid="{B85D1780-1AF9-4FB9-8FB4-8882A2155AA8}"/>
     <hyperlink ref="C33" r:id="rId34" xr:uid="{A59E044E-7673-48CC-8D5B-6F6A1DEFAB7B}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{DCB7DF39-9906-43C5-B8CD-AC533AFDEC90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>